--- a/meja-samples/src/main/resources/com/dua3/meja/samples/test.xlsx
+++ b/meja-samples/src/main/resources/com/dua3/meja/samples/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Development/lib/meja/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axelhowind/Projects/meja/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9A56CC-C405-0F43-82C5-0D986ABDC94D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0B73D1-3691-3745-B7F7-51DB459BDC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="3440" windowWidth="44960" windowHeight="18620" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="67200" windowHeight="35800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alignment Test" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,19 @@
     <sheet name="Inline styles" sheetId="8" r:id="rId8"/>
     <sheet name="Links" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -33,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="355">
   <si>
     <t>Left</t>
   </si>
@@ -1481,6 +1492,21 @@
   </si>
   <si>
     <t>Links to Websites</t>
+  </si>
+  <si>
+    <t>Top (wrap)</t>
+  </si>
+  <si>
+    <t>Center (wrap)</t>
+  </si>
+  <si>
+    <t>Bottom (wrap)</t>
+  </si>
+  <si>
+    <t>Justified (wrap)</t>
+  </si>
+  <si>
+    <t>Distributed (wrap)</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1769,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="390">
+  <fills count="391">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4075,6 +4101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4492,1213 +4524,1136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="543">
+  <cellXfs count="596">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="distributed" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="53" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="54" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="59" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="60" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="61" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="62" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="63" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="64" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="65" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="66" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="67" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="68" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="69" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="70" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="72" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="73" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="74" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="75" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="76" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="77" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="78" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="79" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="81" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="82" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="83" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="84" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="85" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="87" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="89" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="90" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="91" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="92" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="93" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="94" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="95" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="96" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="97" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="98" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="99" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="100" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="101" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="102" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="106" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="107" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="108" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="109" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="110" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="111" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="112" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="113" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="114" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="116" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="117" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="118" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="119" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="120" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="121" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="122" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="123" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="124" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="125" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="126" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="127" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="128" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="129" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="130" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="131" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="132" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="133" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="134" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="135" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="136" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="137" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="138" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="139" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="140" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="141" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="142" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="143" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="144" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="145" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="146" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="147" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="148" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="149" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="150" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="151" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="152" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="153" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="154" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="155" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="156" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="157" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="158" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="159" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="160" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="161" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="162" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="163" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="164" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="165" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="166" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="167" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="168" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="169" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="170" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="171" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="172" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="173" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="174" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="175" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="176" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="177" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="178" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="179" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="180" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="181" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="182" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="183" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="184" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="185" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="186" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="187" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="188" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="189" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="190" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="191" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="192" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="193" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="194" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="195" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="196" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="197" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="198" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="199" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="200" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="201" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="202" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="203" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="204" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="205" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="206" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="207" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="208" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="209" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="210" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="211" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="212" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="213" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="214" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="215" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="216" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="217" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="218" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="219" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="220" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="221" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="222" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="223" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="224" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="225" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="226" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="227" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="228" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="229" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="230" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="231" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="232" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="233" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="234" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="235" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="236" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="237" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="238" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="239" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="240" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="241" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="242" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="243" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="244" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="245" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="246" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="247" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="248" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="249" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="250" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="251" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="252" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="253" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="254" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="255" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="256" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="257" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="258" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="259" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="260" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="261" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="262" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="263" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="264" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="265" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="266" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="267" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="268" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="269" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="270" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="271" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="272" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="273" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="274" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="275" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="276" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="277" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="278" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="279" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="280" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="281" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="282" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="283" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="284" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="285" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="286" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="287" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="288" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="289" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="290" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="291" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="292" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="293" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="294" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="295" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="296" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="297" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="298" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="299" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="300" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="301" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="302" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="303" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="304" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="305" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="306" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="307" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="308" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="309" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="310" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="311" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="312" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="313" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="314" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="315" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="316" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="317" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="318" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="319" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="320" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="321" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="322" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="323" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="324" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="325" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="326" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="327" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="328" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="329" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="330" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="331" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="332" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="333" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="334" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="335" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="336" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="337" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="338" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="339" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="340" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="341" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="342" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="343" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="344" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="345" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="346" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="347" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="348" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="349" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="350" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="351" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="352" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="353" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="354" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="355" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="356" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="357" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="358" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="359" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="360" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="361" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="362" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="363" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="364" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="365" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="366" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="367" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="368" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="369" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="370" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="371" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="372" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="373" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="374" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="375" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="132" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="133" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="134" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="135" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="136" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="137" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="138" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="139" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="140" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="141" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="142" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="143" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="144" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="145" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="146" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="147" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="148" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="149" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="150" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="151" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="152" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="153" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="154" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="155" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="156" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="157" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="158" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="159" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="160" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="161" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="162" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="163" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="164" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="165" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="166" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="167" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="168" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="169" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="170" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="171" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="172" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="173" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="174" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="175" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="176" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="177" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="178" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="179" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="180" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="181" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="182" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="183" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="184" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="185" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="186" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="187" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="188" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="189" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="190" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="191" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="192" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="193" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="194" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="195" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="196" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="197" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="198" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="199" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="200" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="201" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="202" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="203" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="204" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="205" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="206" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="207" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="208" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="209" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="210" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="211" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="212" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="213" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="214" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="215" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="216" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="217" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="218" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="219" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="220" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="221" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="222" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="223" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="224" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="225" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="226" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="227" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="228" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="229" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="230" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="231" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="232" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="233" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="234" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="235" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="236" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="237" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="238" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="239" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="240" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="241" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="242" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="243" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="244" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="245" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="246" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="247" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="248" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="249" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="250" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="251" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="252" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="253" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="254" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="255" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="256" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="257" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="258" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="259" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="260" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="261" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="262" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="263" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="264" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="265" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="266" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="267" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="268" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="269" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="270" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="271" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="272" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="273" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="274" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="275" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="276" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="277" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="278" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="279" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="280" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="281" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="282" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="283" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="284" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="285" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="286" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="287" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="288" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="289" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="290" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="291" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="292" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="293" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="294" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="295" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="296" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="297" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="298" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="299" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="300" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="301" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="302" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="303" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="304" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="305" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="306" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="307" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="308" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="309" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="310" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="311" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="312" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="313" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="314" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="315" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="316" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="317" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="318" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="319" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="320" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="321" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="322" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="323" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="324" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="325" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="326" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="327" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="328" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="329" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="330" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="331" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="332" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="333" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="334" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="335" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="336" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="337" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="338" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="339" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="340" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="341" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="342" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="343" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="344" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="345" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="346" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="347" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="348" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="349" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="350" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="351" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="352" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="353" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="354" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="355" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="356" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="357" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="358" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="359" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="360" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="361" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="362" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="363" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="364" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="365" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="366" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="367" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="368" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="369" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="370" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="371" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="372" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="373" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="374" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="375" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="376" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="377" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="376" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="376" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="376" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="376" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="377" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="377" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="377" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="377" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="378" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="379" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="378" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="378" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="378" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="378" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="379" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="379" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="379" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="379" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="378" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="379" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="380" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="381" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="380" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="381" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="380" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="380" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="381" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5706,15 +5661,15 @@
     <xf numFmtId="0" fontId="0" fillId="382" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="383" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="382" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="382" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="382" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="382" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="383" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="383" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="383" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="383" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="382" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="383" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="384" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="385" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="385" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="384" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="384" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="385" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5743,9 +5698,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5765,7 +5720,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5789,11 +5743,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5801,14 +5755,14 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5816,6 +5770,10 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="386" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5825,7 +5783,236 @@
     <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="389" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="389" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="389" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="389" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="389" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="389" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="389" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="389" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="384" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="384" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="384" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="384" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="384" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="384" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="384" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="384" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="distributed" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -5913,9 +6100,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5953,9 +6140,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5988,26 +6175,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6040,26 +6210,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6233,13 +6386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6249,272 +6402,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="569"/>
+      <c r="B1" s="569" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="570" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="571" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="572" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="573" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="573" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="574" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="575" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="576" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="577" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="578" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="579" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="579" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="580" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="581" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="582" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="583" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="584" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="585" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="585" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="569" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="586" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="587" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="588" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="589" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="590" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="590" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="569" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="586" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="587" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="588" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="589" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="590" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="590" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="591" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="592" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="593" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="594" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="595" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="590" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="590" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="543"/>
+      <c r="B8" s="543" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="544" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="545" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="546" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="547" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="547" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="548" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="549" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="550" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="551" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="552" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="553" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="553" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="554" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="555" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="512" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="556" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="557" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="558" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="558" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="543" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="559" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="560" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="561" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="562" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="563" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="563" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="543" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="559" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="560" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="561" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="562" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="563" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="563" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="564" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="565" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="566" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="567" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="568" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="563" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="563" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="516"/>
+      <c r="B15" s="516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="517" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="518" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="519" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="520" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="520" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="521" t="s">
+        <v>350</v>
+      </c>
+      <c r="B16" s="522" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="523" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="524" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="525" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="526" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="526" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="527" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="528" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="529" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="530" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="531" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="532" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="532" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="516" t="s">
+        <v>352</v>
+      </c>
+      <c r="B18" s="533" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="534" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="535" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="536" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="537" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="537" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="516" t="s">
+        <v>353</v>
+      </c>
+      <c r="B19" s="533" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="534" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="535" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="536" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="537" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="537" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="538" t="s">
+        <v>354</v>
+      </c>
+      <c r="B20" s="539" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="540" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="541" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="542" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="537" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="537" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6532,7 +6823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6547,147 +6838,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="503" t="s">
+      <c r="B1" s="475" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="504" t="s">
+      <c r="C1" s="476" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="504" t="s">
+      <c r="D1" s="476" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="504" t="s">
+      <c r="E1" s="476" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="505" t="s">
+      <c r="F1" s="477" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="500" t="s">
+      <c r="A2" s="472" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="506" t="s">
+      <c r="B2" s="478" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="489" t="s">
+      <c r="C2" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="490" t="s">
+      <c r="D2" s="462" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="491" t="s">
+      <c r="E2" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="492" t="s">
+      <c r="F2" s="464" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="501" t="s">
+      <c r="A3" s="473" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="507" t="s">
+      <c r="B3" s="479" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="479" t="s">
+      <c r="C3" s="452" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="480" t="s">
+      <c r="D3" s="453" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="481" t="s">
+      <c r="E3" s="454" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="493" t="s">
+      <c r="F3" s="465" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="501" t="s">
+      <c r="A4" s="473" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="508" t="s">
+      <c r="B4" s="480" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="482" t="s">
+      <c r="C4" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="483" t="s">
+      <c r="D4" s="456" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="484" t="s">
+      <c r="E4" s="457" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="494" t="s">
+      <c r="F4" s="466" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="501" t="s">
+      <c r="A5" s="473" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="509" t="s">
+      <c r="B5" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="485" t="s">
+      <c r="C5" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="486" t="s">
+      <c r="D5" s="459" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="487" t="s">
+      <c r="E5" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="495" t="s">
+      <c r="F5" s="467" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="502" t="s">
+      <c r="A6" s="474" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="510" t="s">
+      <c r="B6" s="482" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="496" t="s">
+      <c r="C6" s="468" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="497" t="s">
+      <c r="D6" s="469" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="498" t="s">
+      <c r="E6" s="470" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="499" t="s">
+      <c r="F6" s="471" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="488"/>
-      <c r="B7" s="488"/>
-      <c r="C7" s="488"/>
-      <c r="D7" s="488"/>
-      <c r="E7" s="488"/>
-      <c r="F7" s="488"/>
-    </row>
+    <row r="7" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="511" t="s">
+      <c r="A8" s="483" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="512" t="s">
+      <c r="B8" s="484" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="513" t="s">
+      <c r="C8" s="485" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="514" t="s">
+      <c r="D8" s="486" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="515" t="s">
+      <c r="E8" s="487" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="516" t="s">
+      <c r="F8" s="488" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6725,10 +7009,10 @@
     </row>
     <row r="2" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="445"/>
-      <c r="D3" s="446"/>
-      <c r="F3" s="447"/>
-      <c r="H3" s="448"/>
+      <c r="B3" s="418"/>
+      <c r="D3" s="419"/>
+      <c r="F3" s="420"/>
+      <c r="H3" s="421"/>
     </row>
     <row r="4" spans="2:8" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -6758,80 +7042,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="524"/>
-      <c r="B1" s="525" t="s">
+      <c r="A1" s="496"/>
+      <c r="B1" s="497" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="526" t="s">
+      <c r="C1" s="498" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="527" t="s">
+      <c r="D1" s="499" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="528" t="s">
+      <c r="E1" s="500" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="529" t="s">
+      <c r="F1" s="501" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="530" t="s">
+      <c r="A2" s="502" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="531" t="s">
+      <c r="B2" s="503" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="532" t="s">
+      <c r="C2" s="504" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="533" t="s">
+      <c r="D2" s="505" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="534" t="s">
+      <c r="E2" s="506" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="535" t="s">
+      <c r="F2" s="507" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.2">
-      <c r="A3" s="536" t="s">
+      <c r="A3" s="508" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="517" t="s">
+      <c r="B3" s="489" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="450" t="s">
+      <c r="C3" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="451" t="s">
+      <c r="D3" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="452" t="s">
+      <c r="E3" s="425" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="518" t="s">
+      <c r="F3" s="490" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="537" t="s">
+      <c r="A4" s="509" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="519" t="s">
+      <c r="B4" s="491" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="520" t="s">
+      <c r="C4" s="492" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="521" t="s">
+      <c r="D4" s="493" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="522" t="s">
+      <c r="E4" s="494" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="523" t="s">
+      <c r="F4" s="495" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6861,2060 +7145,2060 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="C1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="48" t="s">
+      <c r="C7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="52" t="s">
+      <c r="C8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="53" t="s">
+      <c r="C9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="57" t="s">
+      <c r="C10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="58" t="s">
+      <c r="C11" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="62" t="s">
+      <c r="C12" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="63" t="s">
+      <c r="C13" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="67" t="s">
+      <c r="C14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="68" t="s">
+      <c r="C15" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="41" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="72" t="s">
+      <c r="C16" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="45" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="73" t="s">
+      <c r="C17" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="77" t="s">
+      <c r="C18" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="50" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="40" t="s">
+      <c r="C19" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="40" t="s">
+      <c r="C20" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="84" t="s">
+      <c r="C21" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="57" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="40" t="s">
+      <c r="C22" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="40" t="s">
+      <c r="C23" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="40" t="s">
+      <c r="C24" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="40" t="s">
+      <c r="C25" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="93" t="s">
+      <c r="C26" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="66" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="96" t="s">
+      <c r="C27" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="69" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="99" t="s">
+      <c r="C28" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="102" t="s">
+      <c r="C29" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="75" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="103" t="s">
+      <c r="A30" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="105" t="s">
+      <c r="C30" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="78" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="106" t="s">
+      <c r="B31" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="108" t="s">
+      <c r="C31" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="81" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="109" t="s">
+      <c r="A32" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="109" t="s">
+      <c r="B32" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="111" t="s">
+      <c r="C32" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="84" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="112" t="s">
+      <c r="A33" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="112" t="s">
+      <c r="B33" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="114" t="s">
+      <c r="C33" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="87" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="115" t="s">
+      <c r="A34" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="40" t="s">
+      <c r="C34" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="118" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="119" t="s">
+      <c r="C35" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="92" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="122" t="s">
+      <c r="C36" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="95" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="123" t="s">
+      <c r="A37" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="124" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="125" t="s">
+      <c r="C37" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="98" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="126" t="s">
+      <c r="A38" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="126" t="s">
+      <c r="B38" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="128" t="s">
+      <c r="C38" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="101" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="129" t="s">
+      <c r="A39" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="129" t="s">
+      <c r="B39" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="130" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="131" t="s">
+      <c r="C39" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="104" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="132" t="s">
+      <c r="A40" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="132" t="s">
+      <c r="B40" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="133" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="134" t="s">
+      <c r="C40" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="107" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="129" t="s">
+      <c r="A41" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="130" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="131" t="s">
+      <c r="C41" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="104" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="135" t="s">
+      <c r="A42" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="135" t="s">
+      <c r="B42" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="136" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="137" t="s">
+      <c r="C42" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="110" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="138" t="s">
+      <c r="A43" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="138" t="s">
+      <c r="B43" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="139" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="140" t="s">
+      <c r="C43" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="113" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="141" t="s">
+      <c r="B44" s="114" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="143" t="s">
+      <c r="C44" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="116" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="144" t="s">
+      <c r="A45" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="144" t="s">
+      <c r="B45" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="145" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="146" t="s">
+      <c r="C45" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="119" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="147" t="s">
+      <c r="A46" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="147" t="s">
+      <c r="B46" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="148" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="149" t="s">
+      <c r="C46" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="122" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="150" t="s">
+      <c r="A47" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="150" t="s">
+      <c r="B47" s="123" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="151" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="152" t="s">
+      <c r="C47" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="125" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="153" t="s">
+      <c r="A48" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="153" t="s">
+      <c r="B48" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="154" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="155" t="s">
+      <c r="C48" s="127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="128" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="156" t="s">
+      <c r="A49" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="156" t="s">
+      <c r="B49" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="157" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="158" t="s">
+      <c r="C49" s="130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="131" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="159" t="s">
+      <c r="A50" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="159" t="s">
+      <c r="B50" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="160" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="161" t="s">
+      <c r="C50" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="134" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="162" t="s">
+      <c r="A51" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="162" t="s">
+      <c r="B51" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="163" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="164" t="s">
+      <c r="C51" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="137" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="162" t="s">
+      <c r="A52" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="162" t="s">
+      <c r="B52" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="163" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="164" t="s">
+      <c r="C52" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="137" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="165" t="s">
+      <c r="A53" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="165" t="s">
+      <c r="B53" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="166" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="73" t="s">
+      <c r="C53" s="139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="167" t="s">
+      <c r="A54" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="167" t="s">
+      <c r="B54" s="140" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="168" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="169" t="s">
+      <c r="C54" s="141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="142" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="170" t="s">
+      <c r="A55" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="170" t="s">
+      <c r="B55" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="171" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="172" t="s">
+      <c r="C55" s="144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="145" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="173" t="s">
+      <c r="A56" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="173" t="s">
+      <c r="B56" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="174" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="73" t="s">
+      <c r="C56" s="147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="175" t="s">
+      <c r="A57" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="175" t="s">
+      <c r="B57" s="148" t="s">
         <v>138</v>
       </c>
-      <c r="C57" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="177" t="s">
+      <c r="C57" s="149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="150" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="175" t="s">
+      <c r="A58" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="175" t="s">
+      <c r="B58" s="148" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="177" t="s">
+      <c r="C58" s="149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="150" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="178" t="s">
+      <c r="A59" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="B59" s="178" t="s">
+      <c r="B59" s="151" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="179" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="180" t="s">
+      <c r="C59" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="153" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="181" t="s">
+      <c r="A60" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B60" s="181" t="s">
+      <c r="B60" s="154" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="182" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="183" t="s">
+      <c r="C60" s="155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="156" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="184" t="s">
+      <c r="A61" s="157" t="s">
         <v>144</v>
       </c>
-      <c r="B61" s="184" t="s">
+      <c r="B61" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="40" t="s">
+      <c r="C61" s="158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="186" t="s">
+      <c r="A62" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="186" t="s">
+      <c r="B62" s="159" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="187" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="188" t="s">
+      <c r="C62" s="160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="161" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="189" t="s">
+      <c r="A63" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="B63" s="189" t="s">
+      <c r="B63" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="190" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="40" t="s">
+      <c r="C63" s="163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="191" t="s">
+      <c r="A64" s="164" t="s">
         <v>150</v>
       </c>
-      <c r="B64" s="191" t="s">
+      <c r="B64" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="192" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="40" t="s">
+      <c r="C64" s="165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="193" t="s">
+      <c r="A65" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="193" t="s">
+      <c r="B65" s="166" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="194" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="63" t="s">
+      <c r="C65" s="167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="195" t="s">
+      <c r="A66" s="168" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="195" t="s">
+      <c r="B66" s="168" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="196" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="197" t="s">
+      <c r="C66" s="169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="170" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="198" t="s">
+      <c r="A67" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="198" t="s">
+      <c r="B67" s="171" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="199" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67" s="200" t="s">
+      <c r="C67" s="172" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="173" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" s="43" t="s">
+      <c r="C68" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="201" t="s">
+      <c r="A69" s="174" t="s">
         <v>159</v>
       </c>
-      <c r="B69" s="201" t="s">
+      <c r="B69" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="202" t="s">
-        <v>28</v>
-      </c>
-      <c r="D69" s="40" t="s">
+      <c r="C69" s="175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="203" t="s">
+      <c r="A70" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B70" s="203" t="s">
+      <c r="B70" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="204" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="205" t="s">
+      <c r="C70" s="177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="178" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="206" t="s">
+      <c r="A71" s="179" t="s">
         <v>163</v>
       </c>
-      <c r="B71" s="206" t="s">
+      <c r="B71" s="179" t="s">
         <v>164</v>
       </c>
-      <c r="C71" s="207" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="208" t="s">
+      <c r="C71" s="180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="181" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="209" t="s">
+      <c r="A72" s="182" t="s">
         <v>165</v>
       </c>
-      <c r="B72" s="209" t="s">
+      <c r="B72" s="182" t="s">
         <v>166</v>
       </c>
-      <c r="C72" s="210" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="211" t="s">
+      <c r="C72" s="183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="184" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="212" t="s">
+      <c r="A73" s="185" t="s">
         <v>167</v>
       </c>
-      <c r="B73" s="212" t="s">
+      <c r="B73" s="185" t="s">
         <v>168</v>
       </c>
-      <c r="C73" s="213" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="40" t="s">
+      <c r="C73" s="186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="214" t="s">
+      <c r="A74" s="187" t="s">
         <v>169</v>
       </c>
-      <c r="B74" s="214" t="s">
+      <c r="B74" s="187" t="s">
         <v>170</v>
       </c>
-      <c r="C74" s="215" t="s">
-        <v>28</v>
-      </c>
-      <c r="D74" s="216" t="s">
+      <c r="C74" s="188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="189" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="217" t="s">
+      <c r="B75" s="190" t="s">
         <v>172</v>
       </c>
-      <c r="C75" s="218" t="s">
-        <v>28</v>
-      </c>
-      <c r="D75" s="40" t="s">
+      <c r="C75" s="191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="219" t="s">
+      <c r="A76" s="192" t="s">
         <v>173</v>
       </c>
-      <c r="B76" s="219" t="s">
+      <c r="B76" s="192" t="s">
         <v>174</v>
       </c>
-      <c r="C76" s="220" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76" s="40" t="s">
+      <c r="C76" s="193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="221" t="s">
+      <c r="A77" s="194" t="s">
         <v>175</v>
       </c>
-      <c r="B77" s="221" t="s">
+      <c r="B77" s="194" t="s">
         <v>176</v>
       </c>
-      <c r="C77" s="222" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="223" t="s">
+      <c r="C77" s="195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="196" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="224" t="s">
+      <c r="A78" s="197" t="s">
         <v>177</v>
       </c>
-      <c r="B78" s="224" t="s">
+      <c r="B78" s="197" t="s">
         <v>178</v>
       </c>
-      <c r="C78" s="225" t="s">
-        <v>28</v>
-      </c>
-      <c r="D78" s="40" t="s">
+      <c r="C78" s="198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="226" t="s">
+      <c r="A79" s="199" t="s">
         <v>179</v>
       </c>
-      <c r="B79" s="226" t="s">
+      <c r="B79" s="199" t="s">
         <v>180</v>
       </c>
-      <c r="C79" s="227" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="228" t="s">
+      <c r="C79" s="200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="201" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="229" t="s">
+      <c r="A80" s="202" t="s">
         <v>181</v>
       </c>
-      <c r="B80" s="229" t="s">
+      <c r="B80" s="202" t="s">
         <v>182</v>
       </c>
-      <c r="C80" s="230" t="s">
-        <v>28</v>
-      </c>
-      <c r="D80" s="231" t="s">
+      <c r="C80" s="203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="204" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="232" t="s">
+      <c r="A81" s="205" t="s">
         <v>183</v>
       </c>
-      <c r="B81" s="232" t="s">
+      <c r="B81" s="205" t="s">
         <v>184</v>
       </c>
-      <c r="C81" s="233" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81" s="40" t="s">
+      <c r="C81" s="206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="234" t="s">
+      <c r="A82" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="234" t="s">
+      <c r="B82" s="207" t="s">
         <v>186</v>
       </c>
-      <c r="C82" s="235" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" s="40" t="s">
+      <c r="C82" s="208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="236" t="s">
+      <c r="A83" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="B83" s="236" t="s">
+      <c r="B83" s="209" t="s">
         <v>188</v>
       </c>
-      <c r="C83" s="237" t="s">
-        <v>28</v>
-      </c>
-      <c r="D83" s="40" t="s">
+      <c r="C83" s="210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="238" t="s">
+      <c r="A84" s="211" t="s">
         <v>189</v>
       </c>
-      <c r="B84" s="238" t="s">
+      <c r="B84" s="211" t="s">
         <v>190</v>
       </c>
-      <c r="C84" s="239" t="s">
-        <v>28</v>
-      </c>
-      <c r="D84" s="240" t="s">
+      <c r="C84" s="212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="213" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="236" t="s">
+      <c r="A85" s="209" t="s">
         <v>191</v>
       </c>
-      <c r="B85" s="236" t="s">
+      <c r="B85" s="209" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="237" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="40" t="s">
+      <c r="C85" s="210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="241" t="s">
+      <c r="A86" s="214" t="s">
         <v>192</v>
       </c>
-      <c r="B86" s="241" t="s">
+      <c r="B86" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="C86" s="242" t="s">
-        <v>28</v>
-      </c>
-      <c r="D86" s="40" t="s">
+      <c r="C86" s="215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="243" t="s">
+      <c r="A87" s="216" t="s">
         <v>194</v>
       </c>
-      <c r="B87" s="243" t="s">
+      <c r="B87" s="216" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="244" t="s">
-        <v>28</v>
-      </c>
-      <c r="D87" s="245" t="s">
+      <c r="C87" s="217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="218" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="246" t="s">
+      <c r="A88" s="219" t="s">
         <v>196</v>
       </c>
-      <c r="B88" s="246" t="s">
+      <c r="B88" s="219" t="s">
         <v>197</v>
       </c>
-      <c r="C88" s="247" t="s">
-        <v>28</v>
-      </c>
-      <c r="D88" s="248" t="s">
+      <c r="C88" s="220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="221" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="249" t="s">
+      <c r="A89" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="B89" s="249" t="s">
+      <c r="B89" s="222" t="s">
         <v>199</v>
       </c>
-      <c r="C89" s="250" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" s="251" t="s">
+      <c r="C89" s="223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="224" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="252" t="s">
+      <c r="A90" s="225" t="s">
         <v>200</v>
       </c>
-      <c r="B90" s="252" t="s">
+      <c r="B90" s="225" t="s">
         <v>201</v>
       </c>
-      <c r="C90" s="253" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" s="254" t="s">
+      <c r="C90" s="226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="227" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="252" t="s">
+      <c r="A91" s="225" t="s">
         <v>202</v>
       </c>
-      <c r="B91" s="252" t="s">
+      <c r="B91" s="225" t="s">
         <v>201</v>
       </c>
-      <c r="C91" s="253" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="254" t="s">
+      <c r="C91" s="226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="227" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="255" t="s">
+      <c r="A92" s="228" t="s">
         <v>203</v>
       </c>
-      <c r="B92" s="255" t="s">
+      <c r="B92" s="228" t="s">
         <v>204</v>
       </c>
-      <c r="C92" s="256" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" s="257" t="s">
+      <c r="C92" s="229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="230" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="258" t="s">
+      <c r="A93" s="231" t="s">
         <v>205</v>
       </c>
-      <c r="B93" s="258" t="s">
+      <c r="B93" s="231" t="s">
         <v>206</v>
       </c>
-      <c r="C93" s="259" t="s">
-        <v>28</v>
-      </c>
-      <c r="D93" s="40" t="s">
+      <c r="C93" s="232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="260" t="s">
+      <c r="A94" s="233" t="s">
         <v>207</v>
       </c>
-      <c r="B94" s="260" t="s">
+      <c r="B94" s="233" t="s">
         <v>208</v>
       </c>
-      <c r="C94" s="261" t="s">
-        <v>28</v>
-      </c>
-      <c r="D94" s="262" t="s">
+      <c r="C94" s="234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="235" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="263" t="s">
+      <c r="A95" s="236" t="s">
         <v>209</v>
       </c>
-      <c r="B95" s="263" t="s">
+      <c r="B95" s="236" t="s">
         <v>210</v>
       </c>
-      <c r="C95" s="264" t="s">
-        <v>28</v>
-      </c>
-      <c r="D95" s="40" t="s">
+      <c r="C95" s="237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="265" t="s">
+      <c r="A96" s="238" t="s">
         <v>211</v>
       </c>
-      <c r="B96" s="265" t="s">
+      <c r="B96" s="238" t="s">
         <v>212</v>
       </c>
-      <c r="C96" s="266" t="s">
-        <v>28</v>
-      </c>
-      <c r="D96" s="267" t="s">
+      <c r="C96" s="239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="240" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="268" t="s">
+      <c r="A97" s="241" t="s">
         <v>213</v>
       </c>
-      <c r="B97" s="268" t="s">
+      <c r="B97" s="241" t="s">
         <v>214</v>
       </c>
-      <c r="C97" s="269" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97" s="68" t="s">
+      <c r="C97" s="242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="41" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="270" t="s">
+      <c r="A98" s="243" t="s">
         <v>215</v>
       </c>
-      <c r="B98" s="270" t="s">
+      <c r="B98" s="243" t="s">
         <v>216</v>
       </c>
-      <c r="C98" s="271" t="s">
-        <v>28</v>
-      </c>
-      <c r="D98" s="272" t="s">
+      <c r="C98" s="244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="245" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="273" t="s">
+      <c r="A99" s="246" t="s">
         <v>217</v>
       </c>
-      <c r="B99" s="273" t="s">
+      <c r="B99" s="246" t="s">
         <v>218</v>
       </c>
-      <c r="C99" s="274" t="s">
-        <v>28</v>
-      </c>
-      <c r="D99" s="275" t="s">
+      <c r="C99" s="247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="248" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="276" t="s">
+      <c r="A100" s="249" t="s">
         <v>219</v>
       </c>
-      <c r="B100" s="276" t="s">
+      <c r="B100" s="249" t="s">
         <v>220</v>
       </c>
-      <c r="C100" s="277" t="s">
-        <v>28</v>
-      </c>
-      <c r="D100" s="278" t="s">
+      <c r="C100" s="250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="251" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="279" t="s">
+      <c r="A101" s="252" t="s">
         <v>221</v>
       </c>
-      <c r="B101" s="279" t="s">
+      <c r="B101" s="252" t="s">
         <v>222</v>
       </c>
-      <c r="C101" s="280" t="s">
-        <v>28</v>
-      </c>
-      <c r="D101" s="281" t="s">
+      <c r="C101" s="253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="254" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="282" t="s">
+      <c r="A102" s="255" t="s">
         <v>223</v>
       </c>
-      <c r="B102" s="282" t="s">
+      <c r="B102" s="255" t="s">
         <v>224</v>
       </c>
-      <c r="C102" s="283" t="s">
-        <v>28</v>
-      </c>
-      <c r="D102" s="284" t="s">
+      <c r="C102" s="256" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="257" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" s="285" t="s">
+      <c r="A103" s="258" t="s">
         <v>225</v>
       </c>
-      <c r="B103" s="285" t="s">
+      <c r="B103" s="258" t="s">
         <v>226</v>
       </c>
-      <c r="C103" s="286" t="s">
-        <v>28</v>
-      </c>
-      <c r="D103" s="287" t="s">
+      <c r="C103" s="259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" s="260" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="288" t="s">
+      <c r="A104" s="261" t="s">
         <v>227</v>
       </c>
-      <c r="B104" s="288" t="s">
+      <c r="B104" s="261" t="s">
         <v>228</v>
       </c>
-      <c r="C104" s="289" t="s">
-        <v>28</v>
-      </c>
-      <c r="D104" s="290" t="s">
+      <c r="C104" s="262" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" s="263" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="291" t="s">
+      <c r="A105" s="264" t="s">
         <v>229</v>
       </c>
-      <c r="B105" s="291" t="s">
+      <c r="B105" s="264" t="s">
         <v>230</v>
       </c>
-      <c r="C105" s="292" t="s">
-        <v>28</v>
-      </c>
-      <c r="D105" s="293" t="s">
+      <c r="C105" s="265" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" s="266" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="294" t="s">
+      <c r="A106" s="267" t="s">
         <v>231</v>
       </c>
-      <c r="B106" s="294" t="s">
+      <c r="B106" s="267" t="s">
         <v>232</v>
       </c>
-      <c r="C106" s="295" t="s">
-        <v>28</v>
-      </c>
-      <c r="D106" s="40" t="s">
+      <c r="C106" s="268" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="296" t="s">
+      <c r="A107" s="269" t="s">
         <v>233</v>
       </c>
-      <c r="B107" s="296" t="s">
+      <c r="B107" s="269" t="s">
         <v>234</v>
       </c>
-      <c r="C107" s="297" t="s">
-        <v>28</v>
-      </c>
-      <c r="D107" s="40" t="s">
+      <c r="C107" s="270" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="298" t="s">
+      <c r="A108" s="271" t="s">
         <v>235</v>
       </c>
-      <c r="B108" s="298" t="s">
+      <c r="B108" s="271" t="s">
         <v>236</v>
       </c>
-      <c r="C108" s="299" t="s">
-        <v>28</v>
-      </c>
-      <c r="D108" s="40" t="s">
+      <c r="C108" s="272" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="300" t="s">
+      <c r="A109" s="273" t="s">
         <v>237</v>
       </c>
-      <c r="B109" s="300" t="s">
+      <c r="B109" s="273" t="s">
         <v>238</v>
       </c>
-      <c r="C109" s="301" t="s">
-        <v>28</v>
-      </c>
-      <c r="D109" s="302" t="s">
+      <c r="C109" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" s="275" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="303" t="s">
+      <c r="A110" s="276" t="s">
         <v>239</v>
       </c>
-      <c r="B110" s="303" t="s">
+      <c r="B110" s="276" t="s">
         <v>240</v>
       </c>
-      <c r="C110" s="304" t="s">
-        <v>28</v>
-      </c>
-      <c r="D110" s="40" t="s">
+      <c r="C110" s="277" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="305" t="s">
+      <c r="A111" s="278" t="s">
         <v>241</v>
       </c>
-      <c r="B111" s="305" t="s">
+      <c r="B111" s="278" t="s">
         <v>242</v>
       </c>
-      <c r="C111" s="306" t="s">
-        <v>28</v>
-      </c>
-      <c r="D111" s="307" t="s">
+      <c r="C111" s="279" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" s="280" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="308" t="s">
+      <c r="A112" s="281" t="s">
         <v>243</v>
       </c>
-      <c r="B112" s="308" t="s">
+      <c r="B112" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="309" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" s="310" t="s">
+      <c r="C112" s="282" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="283" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="311" t="s">
+      <c r="A113" s="284" t="s">
         <v>245</v>
       </c>
-      <c r="B113" s="311" t="s">
+      <c r="B113" s="284" t="s">
         <v>246</v>
       </c>
-      <c r="C113" s="312" t="s">
-        <v>28</v>
-      </c>
-      <c r="D113" s="313" t="s">
+      <c r="C113" s="285" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="286" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="314" t="s">
+      <c r="A114" s="287" t="s">
         <v>247</v>
       </c>
-      <c r="B114" s="314" t="s">
+      <c r="B114" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="C114" s="315" t="s">
-        <v>28</v>
-      </c>
-      <c r="D114" s="316" t="s">
+      <c r="C114" s="288" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="289" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="317" t="s">
+      <c r="A115" s="290" t="s">
         <v>249</v>
       </c>
-      <c r="B115" s="317" t="s">
+      <c r="B115" s="290" t="s">
         <v>250</v>
       </c>
-      <c r="C115" s="318" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" s="319" t="s">
+      <c r="C115" s="291" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="292" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="320" t="s">
+      <c r="A116" s="293" t="s">
         <v>251</v>
       </c>
-      <c r="B116" s="320" t="s">
+      <c r="B116" s="293" t="s">
         <v>252</v>
       </c>
-      <c r="C116" s="321" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116" s="322" t="s">
+      <c r="C116" s="294" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" s="295" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="323" t="s">
+      <c r="A117" s="296" t="s">
         <v>253</v>
       </c>
-      <c r="B117" s="323" t="s">
+      <c r="B117" s="296" t="s">
         <v>254</v>
       </c>
-      <c r="C117" s="324" t="s">
-        <v>28</v>
-      </c>
-      <c r="D117" s="325" t="s">
+      <c r="C117" s="297" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" s="298" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="326" t="s">
+      <c r="A118" s="299" t="s">
         <v>255</v>
       </c>
-      <c r="B118" s="326" t="s">
+      <c r="B118" s="299" t="s">
         <v>256</v>
       </c>
-      <c r="C118" s="327" t="s">
-        <v>28</v>
-      </c>
-      <c r="D118" s="40" t="s">
+      <c r="C118" s="300" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="328" t="s">
+      <c r="A119" s="301" t="s">
         <v>257</v>
       </c>
-      <c r="B119" s="328" t="s">
+      <c r="B119" s="301" t="s">
         <v>258</v>
       </c>
-      <c r="C119" s="329" t="s">
-        <v>28</v>
-      </c>
-      <c r="D119" s="40" t="s">
+      <c r="C119" s="302" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" s="330" t="s">
+      <c r="A120" s="303" t="s">
         <v>259</v>
       </c>
-      <c r="B120" s="330" t="s">
+      <c r="B120" s="303" t="s">
         <v>260</v>
       </c>
-      <c r="C120" s="331" t="s">
-        <v>28</v>
-      </c>
-      <c r="D120" s="332" t="s">
+      <c r="C120" s="304" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" s="305" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="333" t="s">
+      <c r="A121" s="306" t="s">
         <v>261</v>
       </c>
-      <c r="B121" s="333" t="s">
+      <c r="B121" s="306" t="s">
         <v>262</v>
       </c>
-      <c r="C121" s="334" t="s">
-        <v>28</v>
-      </c>
-      <c r="D121" s="40" t="s">
+      <c r="C121" s="307" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="335" t="s">
+      <c r="A122" s="308" t="s">
         <v>263</v>
       </c>
-      <c r="B122" s="335" t="s">
+      <c r="B122" s="308" t="s">
         <v>264</v>
       </c>
-      <c r="C122" s="336" t="s">
-        <v>28</v>
-      </c>
-      <c r="D122" s="337" t="s">
+      <c r="C122" s="309" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="310" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A123" s="338" t="s">
+      <c r="A123" s="311" t="s">
         <v>265</v>
       </c>
-      <c r="B123" s="338" t="s">
+      <c r="B123" s="311" t="s">
         <v>266</v>
       </c>
-      <c r="C123" s="339" t="s">
-        <v>28</v>
-      </c>
-      <c r="D123" s="257" t="s">
+      <c r="C123" s="312" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="230" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124" s="340" t="s">
+      <c r="A124" s="313" t="s">
         <v>267</v>
       </c>
-      <c r="B124" s="340" t="s">
+      <c r="B124" s="313" t="s">
         <v>268</v>
       </c>
-      <c r="C124" s="341" t="s">
-        <v>28</v>
-      </c>
-      <c r="D124" s="342" t="s">
+      <c r="C124" s="314" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="315" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="343" t="s">
+      <c r="A125" s="316" t="s">
         <v>269</v>
       </c>
-      <c r="B125" s="343" t="s">
+      <c r="B125" s="316" t="s">
         <v>270</v>
       </c>
-      <c r="C125" s="344" t="s">
-        <v>28</v>
-      </c>
-      <c r="D125" s="345" t="s">
+      <c r="C125" s="317" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="318" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="346" t="s">
+      <c r="A126" s="319" t="s">
         <v>271</v>
       </c>
-      <c r="B126" s="346" t="s">
+      <c r="B126" s="319" t="s">
         <v>272</v>
       </c>
-      <c r="C126" s="347" t="s">
-        <v>28</v>
-      </c>
-      <c r="D126" s="348" t="s">
+      <c r="C126" s="320" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" s="321" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="349" t="s">
+      <c r="A127" s="322" t="s">
         <v>273</v>
       </c>
-      <c r="B127" s="349" t="s">
+      <c r="B127" s="322" t="s">
         <v>274</v>
       </c>
-      <c r="C127" s="350" t="s">
-        <v>28</v>
-      </c>
-      <c r="D127" s="351" t="s">
+      <c r="C127" s="323" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" s="324" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="352" t="s">
+      <c r="A128" s="325" t="s">
         <v>275</v>
       </c>
-      <c r="B128" s="352" t="s">
+      <c r="B128" s="325" t="s">
         <v>276</v>
       </c>
-      <c r="C128" s="353" t="s">
-        <v>28</v>
-      </c>
-      <c r="D128" s="354" t="s">
+      <c r="C128" s="326" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="327" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="355" t="s">
+      <c r="A129" s="328" t="s">
         <v>277</v>
       </c>
-      <c r="B129" s="355" t="s">
+      <c r="B129" s="328" t="s">
         <v>278</v>
       </c>
-      <c r="C129" s="356" t="s">
-        <v>28</v>
-      </c>
-      <c r="D129" s="357" t="s">
+      <c r="C129" s="329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" s="330" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130" s="358" t="s">
+      <c r="A130" s="331" t="s">
         <v>279</v>
       </c>
-      <c r="B130" s="358" t="s">
+      <c r="B130" s="331" t="s">
         <v>280</v>
       </c>
-      <c r="C130" s="359" t="s">
-        <v>28</v>
-      </c>
-      <c r="D130" s="40" t="s">
+      <c r="C130" s="332" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131" s="360" t="s">
+      <c r="A131" s="333" t="s">
         <v>281</v>
       </c>
-      <c r="B131" s="360" t="s">
+      <c r="B131" s="333" t="s">
         <v>282</v>
       </c>
-      <c r="C131" s="361" t="s">
-        <v>28</v>
-      </c>
-      <c r="D131" s="362" t="s">
+      <c r="C131" s="334" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" s="335" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="363" t="s">
+      <c r="A132" s="336" t="s">
         <v>283</v>
       </c>
-      <c r="B132" s="363" t="s">
+      <c r="B132" s="336" t="s">
         <v>284</v>
       </c>
-      <c r="C132" s="364" t="s">
-        <v>28</v>
-      </c>
-      <c r="D132" s="251" t="s">
+      <c r="C132" s="337" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" s="224" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133" s="365" t="s">
+      <c r="A133" s="338" t="s">
         <v>285</v>
       </c>
-      <c r="B133" s="365" t="s">
+      <c r="B133" s="338" t="s">
         <v>286</v>
       </c>
-      <c r="C133" s="366" t="s">
-        <v>28</v>
-      </c>
-      <c r="D133" s="367" t="s">
+      <c r="C133" s="339" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" s="340" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="368" t="s">
+      <c r="A134" s="341" t="s">
         <v>287</v>
       </c>
-      <c r="B134" s="368" t="s">
+      <c r="B134" s="341" t="s">
         <v>288</v>
       </c>
-      <c r="C134" s="369" t="s">
-        <v>28</v>
-      </c>
-      <c r="D134" s="370" t="s">
+      <c r="C134" s="342" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" s="343" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="368" t="s">
+      <c r="A135" s="341" t="s">
         <v>289</v>
       </c>
-      <c r="B135" s="368" t="s">
+      <c r="B135" s="341" t="s">
         <v>288</v>
       </c>
-      <c r="C135" s="369" t="s">
-        <v>28</v>
-      </c>
-      <c r="D135" s="370" t="s">
+      <c r="C135" s="342" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="343" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="371" t="s">
+      <c r="A136" s="344" t="s">
         <v>290</v>
       </c>
-      <c r="B136" s="371" t="s">
+      <c r="B136" s="344" t="s">
         <v>291</v>
       </c>
-      <c r="C136" s="372" t="s">
-        <v>28</v>
-      </c>
-      <c r="D136" s="40" t="s">
+      <c r="C136" s="345" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="373" t="s">
+      <c r="A137" s="346" t="s">
         <v>292</v>
       </c>
-      <c r="B137" s="373" t="s">
+      <c r="B137" s="346" t="s">
         <v>293</v>
       </c>
-      <c r="C137" s="374" t="s">
-        <v>28</v>
-      </c>
-      <c r="D137" s="375" t="s">
+      <c r="C137" s="347" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" s="348" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="376" t="s">
+      <c r="A138" s="349" t="s">
         <v>294</v>
       </c>
-      <c r="B138" s="376" t="s">
+      <c r="B138" s="349" t="s">
         <v>295</v>
       </c>
-      <c r="C138" s="377" t="s">
-        <v>28</v>
-      </c>
-      <c r="D138" s="378" t="s">
+      <c r="C138" s="350" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" s="351" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="379" t="s">
+      <c r="A139" s="352" t="s">
         <v>296</v>
       </c>
-      <c r="B139" s="379" t="s">
+      <c r="B139" s="352" t="s">
         <v>297</v>
       </c>
-      <c r="C139" s="380" t="s">
-        <v>28</v>
-      </c>
-      <c r="D139" s="216" t="s">
+      <c r="C139" s="353" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="189" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="381" t="s">
+      <c r="A140" s="354" t="s">
         <v>298</v>
       </c>
-      <c r="B140" s="381" t="s">
+      <c r="B140" s="354" t="s">
         <v>299</v>
       </c>
-      <c r="C140" s="382" t="s">
-        <v>28</v>
-      </c>
-      <c r="D140" s="40" t="s">
+      <c r="C140" s="355" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141" s="383" t="s">
+      <c r="A141" s="356" t="s">
         <v>300</v>
       </c>
-      <c r="B141" s="383" t="s">
+      <c r="B141" s="356" t="s">
         <v>301</v>
       </c>
-      <c r="C141" s="384" t="s">
-        <v>28</v>
-      </c>
-      <c r="D141" s="385" t="s">
+      <c r="C141" s="357" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" s="358" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="386" t="s">
+      <c r="A142" s="359" t="s">
         <v>302</v>
       </c>
-      <c r="B142" s="386" t="s">
+      <c r="B142" s="359" t="s">
         <v>303</v>
       </c>
-      <c r="C142" s="387" t="s">
-        <v>28</v>
-      </c>
-      <c r="D142" s="388" t="s">
+      <c r="C142" s="360" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" s="361" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="389" t="s">
+      <c r="A143" s="362" t="s">
         <v>304</v>
       </c>
-      <c r="B143" s="389" t="s">
+      <c r="B143" s="362" t="s">
         <v>305</v>
       </c>
-      <c r="C143" s="390" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143" s="391" t="s">
+      <c r="C143" s="363" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" s="364" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="392" t="s">
+      <c r="A144" s="365" t="s">
         <v>306</v>
       </c>
-      <c r="B144" s="392" t="s">
+      <c r="B144" s="365" t="s">
         <v>307</v>
       </c>
-      <c r="C144" s="393" t="s">
-        <v>28</v>
-      </c>
-      <c r="D144" s="40" t="s">
+      <c r="C144" s="366" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="394" t="s">
+      <c r="A145" s="367" t="s">
         <v>308</v>
       </c>
-      <c r="B145" s="394" t="s">
+      <c r="B145" s="367" t="s">
         <v>309</v>
       </c>
-      <c r="C145" s="395" t="s">
-        <v>28</v>
-      </c>
-      <c r="D145" s="40" t="s">
+      <c r="C145" s="368" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146" s="396" t="s">
+      <c r="A146" s="369" t="s">
         <v>310</v>
       </c>
-      <c r="B146" s="396" t="s">
+      <c r="B146" s="369" t="s">
         <v>311</v>
       </c>
-      <c r="C146" s="397" t="s">
-        <v>28</v>
-      </c>
-      <c r="D146" s="398" t="s">
+      <c r="C146" s="370" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="371" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147" s="399" t="s">
+      <c r="A147" s="372" t="s">
         <v>312</v>
       </c>
-      <c r="B147" s="399" t="s">
+      <c r="B147" s="372" t="s">
         <v>313</v>
       </c>
-      <c r="C147" s="400" t="s">
-        <v>28</v>
-      </c>
-      <c r="D147" s="401" t="s">
+      <c r="C147" s="373" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" s="374" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8933,124 +9217,124 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="29"/>
-      <c r="B1" s="402"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="375"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="376"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="404"/>
-      <c r="B2" s="405"/>
-      <c r="C2" s="406"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="408"/>
-      <c r="F2" s="409"/>
+      <c r="A2" s="377"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="380"/>
+      <c r="E2" s="381"/>
+      <c r="F2" s="382"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
-      <c r="B3" s="405"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="408"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="378"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="410"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="411"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="383"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="384"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="412"/>
-      <c r="B5" s="413"/>
-      <c r="C5" s="414"/>
-      <c r="D5" s="415"/>
-      <c r="E5" s="416"/>
-      <c r="F5" s="417"/>
+      <c r="A5" s="385"/>
+      <c r="B5" s="386"/>
+      <c r="C5" s="387"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="389"/>
+      <c r="F5" s="390"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="418"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="419"/>
-      <c r="F6" s="34"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="391"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="392"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
-      <c r="B7" s="420"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="421"/>
-      <c r="F7" s="32"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="393"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="394"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="422"/>
-      <c r="B8" s="420"/>
-      <c r="C8" s="423"/>
-      <c r="D8" s="424"/>
-      <c r="E8" s="421"/>
-      <c r="F8" s="425"/>
+      <c r="A8" s="395"/>
+      <c r="B8" s="393"/>
+      <c r="C8" s="396"/>
+      <c r="D8" s="397"/>
+      <c r="E8" s="394"/>
+      <c r="F8" s="398"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
-      <c r="B9" s="420"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="421"/>
-      <c r="F9" s="32"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="393"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="394"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="426"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="427"/>
-      <c r="F10" s="30"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="399"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="400"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="428"/>
-      <c r="B11" s="429"/>
-      <c r="C11" s="430"/>
-      <c r="D11" s="431"/>
-      <c r="E11" s="432"/>
-      <c r="F11" s="433"/>
+      <c r="A11" s="401"/>
+      <c r="B11" s="402"/>
+      <c r="C11" s="403"/>
+      <c r="D11" s="404"/>
+      <c r="E11" s="405"/>
+      <c r="F11" s="406"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
-      <c r="B12" s="434"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="435"/>
-      <c r="F12" s="34"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="407"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="408"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="436"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="437"/>
-      <c r="F13" s="32"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="409"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="410"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="438"/>
-      <c r="B14" s="436"/>
-      <c r="C14" s="439"/>
-      <c r="D14" s="440"/>
-      <c r="E14" s="437"/>
-      <c r="F14" s="441"/>
+      <c r="A14" s="411"/>
+      <c r="B14" s="409"/>
+      <c r="C14" s="412"/>
+      <c r="D14" s="413"/>
+      <c r="E14" s="410"/>
+      <c r="F14" s="414"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="442"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="443"/>
-      <c r="F15" s="34"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="415"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="416"/>
+      <c r="F15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9069,70 +9353,70 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="539" t="s">
+      <c r="A1" s="513" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="539"/>
-      <c r="C1" s="444" t="s">
+      <c r="B1" s="513"/>
+      <c r="C1" s="417" t="s">
         <v>341</v>
       </c>
-      <c r="D1" s="444" t="s">
+      <c r="D1" s="417" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="514" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="540"/>
-      <c r="C2" s="541" t="s">
+      <c r="B2" s="514"/>
+      <c r="C2" s="515" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="444" t="s">
+      <c r="D2" s="417" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="540"/>
-      <c r="B3" s="540"/>
-      <c r="C3" s="541"/>
-      <c r="D3" s="444" t="s">
+      <c r="A3" s="514"/>
+      <c r="B3" s="514"/>
+      <c r="C3" s="515"/>
+      <c r="D3" s="417" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="540"/>
-      <c r="B4" s="540"/>
-      <c r="C4" s="444" t="s">
+      <c r="A4" s="514"/>
+      <c r="B4" s="514"/>
+      <c r="C4" s="417" t="s">
         <v>341</v>
       </c>
-      <c r="D4" s="444" t="s">
+      <c r="D4" s="417" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="444" t="s">
+      <c r="A5" s="417" t="s">
         <v>341</v>
       </c>
-      <c r="B5" s="539" t="s">
+      <c r="B5" s="513" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="539"/>
-      <c r="D5" s="444" t="s">
+      <c r="C5" s="513"/>
+      <c r="D5" s="417" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="444" t="s">
+      <c r="A6" s="417" t="s">
         <v>341</v>
       </c>
-      <c r="B6" s="444" t="s">
+      <c r="B6" s="417" t="s">
         <v>341</v>
       </c>
-      <c r="C6" s="444" t="s">
+      <c r="C6" s="417" t="s">
         <v>341</v>
       </c>
-      <c r="D6" s="444" t="s">
+      <c r="D6" s="417" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9162,135 +9446,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="469" t="s">
+      <c r="B1" s="442" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="470" t="s">
+      <c r="C1" s="443" t="s">
         <v>318</v>
       </c>
-      <c r="D1" s="470" t="s">
+      <c r="D1" s="443" t="s">
         <v>319</v>
       </c>
-      <c r="E1" s="471" t="s">
+      <c r="E1" s="444" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="A2" s="472" t="s">
+      <c r="A2" s="445" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="473" t="s">
+      <c r="B2" s="446" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="474" t="s">
+      <c r="C2" s="447" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="475" t="s">
+      <c r="D2" s="448" t="s">
         <v>323</v>
       </c>
-      <c r="E2" s="476" t="s">
+      <c r="E2" s="449" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="477" t="s">
+      <c r="A3" s="450" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="456" t="s">
+      <c r="B3" s="429" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="453" t="s">
+      <c r="C3" s="426" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="453" t="s">
+      <c r="D3" s="426" t="s">
         <v>326</v>
       </c>
-      <c r="E3" s="457" t="s">
+      <c r="E3" s="430" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="477" t="s">
+      <c r="A4" s="450" t="s">
         <v>328</v>
       </c>
-      <c r="B4" s="458" t="s">
+      <c r="B4" s="431" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="454" t="s">
+      <c r="C4" s="427" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="453" t="s">
+      <c r="D4" s="426" t="s">
         <v>329</v>
       </c>
-      <c r="E4" s="459" t="s">
+      <c r="E4" s="432" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="477" t="s">
+      <c r="A5" s="450" t="s">
         <v>331</v>
       </c>
-      <c r="B5" s="460" t="s">
+      <c r="B5" s="433" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="453" t="s">
+      <c r="C5" s="426" t="s">
         <v>322</v>
       </c>
-      <c r="D5" s="453" t="s">
+      <c r="D5" s="426" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="461" t="s">
+      <c r="E5" s="434" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="477" t="s">
+      <c r="A6" s="450" t="s">
         <v>334</v>
       </c>
-      <c r="B6" s="462" t="s">
+      <c r="B6" s="435" t="s">
         <v>322</v>
       </c>
-      <c r="C6" s="449" t="s">
+      <c r="C6" s="422" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="453" t="s">
+      <c r="D6" s="426" t="s">
         <v>335</v>
       </c>
-      <c r="E6" s="463" t="s">
+      <c r="E6" s="436" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="477" t="s">
+      <c r="A7" s="450" t="s">
         <v>337</v>
       </c>
-      <c r="B7" s="464" t="s">
+      <c r="B7" s="437" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="455" t="s">
+      <c r="C7" s="428" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="453" t="s">
+      <c r="D7" s="426" t="s">
         <v>338</v>
       </c>
-      <c r="E7" s="465" t="s">
+      <c r="E7" s="438" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="478" t="s">
+      <c r="A8" s="451" t="s">
         <v>340</v>
       </c>
-      <c r="B8" s="466" t="s">
+      <c r="B8" s="439" t="s">
         <v>322</v>
       </c>
-      <c r="C8" s="467" t="s">
+      <c r="C8" s="440" t="s">
         <v>322</v>
       </c>
-      <c r="D8" s="467" t="s">
+      <c r="D8" s="440" t="s">
         <v>322</v>
       </c>
-      <c r="E8" s="468" t="s">
+      <c r="E8" s="441" t="s">
         <v>322</v>
       </c>
     </row>
@@ -9308,7 +9592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740A3BD5-63EB-6543-A84C-9EAD8F792455}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -9322,13 +9606,13 @@
       <c r="A1" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="538" t="s">
+      <c r="B1" s="510" t="s">
         <v>346</v>
       </c>
-      <c r="C1" s="542" t="s">
+      <c r="C1" s="511" t="s">
         <v>347</v>
       </c>
-      <c r="D1" s="538" t="s">
+      <c r="D1" s="510" t="s">
         <v>348</v>
       </c>
     </row>
@@ -9336,7 +9620,7 @@
       <c r="A2" t="s">
         <v>349</v>
       </c>
-      <c r="B2" s="538" t="s">
+      <c r="B2" s="510" t="s">
         <v>342</v>
       </c>
     </row>
@@ -9344,7 +9628,7 @@
       <c r="A3" t="s">
         <v>343</v>
       </c>
-      <c r="B3" s="538" t="s">
+      <c r="B3" s="510" t="s">
         <v>344</v>
       </c>
     </row>

--- a/meja-samples/src/main/resources/com/dua3/meja/samples/test.xlsx
+++ b/meja-samples/src/main/resources/com/dua3/meja/samples/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axelhowind/Projects/meja/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0B73D1-3691-3745-B7F7-51DB459BDC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD11BCC-0E6F-B241-833C-C013B6DB3A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="67200" windowHeight="35800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alignment Test" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="356">
   <si>
     <t>Left</t>
   </si>
@@ -1507,6 +1507,9 @@
   </si>
   <si>
     <t>Distributed (wrap)</t>
+  </si>
+  <si>
+    <t>merged</t>
   </si>
 </sst>
 </file>
@@ -4524,7 +4527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="596">
+  <cellXfs count="597">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -5774,15 +5777,6 @@
     <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="386" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="388" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6012,6 +6006,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="386" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="388" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6388,7 +6394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6402,410 +6408,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="569"/>
-      <c r="B1" s="569" t="s">
+      <c r="A1" s="566"/>
+      <c r="B1" s="566" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="570" t="s">
+      <c r="C1" s="567" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="571" t="s">
+      <c r="D1" s="568" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="572" t="s">
+      <c r="E1" s="569" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="573" t="s">
+      <c r="F1" s="570" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="573" t="s">
+      <c r="G1" s="570" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="574" t="s">
+      <c r="A2" s="571" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="575" t="s">
+      <c r="B2" s="572" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="576" t="s">
+      <c r="C2" s="573" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="577" t="s">
+      <c r="D2" s="574" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="578" t="s">
+      <c r="E2" s="575" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="579" t="s">
+      <c r="F2" s="576" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="579" t="s">
+      <c r="G2" s="576" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="580" t="s">
+      <c r="A3" s="577" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="581" t="s">
+      <c r="B3" s="578" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="582" t="s">
+      <c r="C3" s="579" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="583" t="s">
+      <c r="D3" s="580" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="584" t="s">
+      <c r="E3" s="581" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="585" t="s">
+      <c r="F3" s="582" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="585" t="s">
+      <c r="G3" s="582" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="569" t="s">
+      <c r="A4" s="566" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="586" t="s">
+      <c r="B4" s="583" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="587" t="s">
+      <c r="C4" s="584" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="588" t="s">
+      <c r="D4" s="585" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="589" t="s">
+      <c r="E4" s="586" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="590" t="s">
+      <c r="F4" s="587" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="590" t="s">
+      <c r="G4" s="587" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="569" t="s">
+      <c r="A5" s="566" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="583" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="587" t="s">
+      <c r="C5" s="584" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="588" t="s">
+      <c r="D5" s="585" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="589" t="s">
+      <c r="E5" s="586" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="590" t="s">
+      <c r="F5" s="587" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="590" t="s">
+      <c r="G5" s="587" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="591" t="s">
+      <c r="A6" s="588" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="589" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="593" t="s">
+      <c r="C6" s="590" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="594" t="s">
+      <c r="D6" s="591" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="595" t="s">
+      <c r="E6" s="592" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="590" t="s">
+      <c r="F6" s="587" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="590" t="s">
+      <c r="G6" s="587" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="543"/>
-      <c r="B8" s="543" t="s">
+      <c r="A8" s="540"/>
+      <c r="B8" s="540" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="544" t="s">
+      <c r="C8" s="541" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="545" t="s">
+      <c r="D8" s="542" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="546" t="s">
+      <c r="E8" s="543" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="547" t="s">
+      <c r="F8" s="544" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="547" t="s">
+      <c r="G8" s="544" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="548" t="s">
+      <c r="A9" s="545" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="549" t="s">
+      <c r="B9" s="546" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="550" t="s">
+      <c r="C9" s="547" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="551" t="s">
+      <c r="D9" s="548" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="552" t="s">
+      <c r="E9" s="549" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="553" t="s">
+      <c r="F9" s="550" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="553" t="s">
+      <c r="G9" s="550" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="554" t="s">
+      <c r="A10" s="551" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="555" t="s">
+      <c r="B10" s="552" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="512" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="556" t="s">
+      <c r="D10" s="553" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="557" t="s">
+      <c r="E10" s="554" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="558" t="s">
+      <c r="F10" s="555" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="558" t="s">
+      <c r="G10" s="555" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="543" t="s">
+      <c r="A11" s="540" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="559" t="s">
+      <c r="B11" s="556" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="560" t="s">
+      <c r="C11" s="557" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="561" t="s">
+      <c r="D11" s="558" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="562" t="s">
+      <c r="E11" s="559" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="563" t="s">
+      <c r="F11" s="560" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="563" t="s">
+      <c r="G11" s="560" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="543" t="s">
+      <c r="A12" s="540" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="559" t="s">
+      <c r="B12" s="556" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="560" t="s">
+      <c r="C12" s="557" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="561" t="s">
+      <c r="D12" s="558" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="562" t="s">
+      <c r="E12" s="559" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="563" t="s">
+      <c r="F12" s="560" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="563" t="s">
+      <c r="G12" s="560" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="564" t="s">
+      <c r="A13" s="561" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="565" t="s">
+      <c r="B13" s="562" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="566" t="s">
+      <c r="C13" s="563" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="567" t="s">
+      <c r="D13" s="564" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="568" t="s">
+      <c r="E13" s="565" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="563" t="s">
+      <c r="F13" s="560" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="563" t="s">
+      <c r="G13" s="560" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="516"/>
-      <c r="B15" s="516" t="s">
+      <c r="A15" s="513"/>
+      <c r="B15" s="513" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="517" t="s">
+      <c r="C15" s="514" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="518" t="s">
+      <c r="D15" s="515" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="519" t="s">
+      <c r="E15" s="516" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="520" t="s">
+      <c r="F15" s="517" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="520" t="s">
+      <c r="G15" s="517" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="521" t="s">
+      <c r="A16" s="518" t="s">
         <v>350</v>
       </c>
-      <c r="B16" s="522" t="s">
+      <c r="B16" s="519" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="523" t="s">
+      <c r="C16" s="520" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="524" t="s">
+      <c r="D16" s="521" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="525" t="s">
+      <c r="E16" s="522" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="526" t="s">
+      <c r="F16" s="523" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="526" t="s">
+      <c r="G16" s="523" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="527" t="s">
+      <c r="A17" s="524" t="s">
         <v>351</v>
       </c>
-      <c r="B17" s="528" t="s">
+      <c r="B17" s="525" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="529" t="s">
+      <c r="C17" s="526" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="530" t="s">
+      <c r="D17" s="527" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="531" t="s">
+      <c r="E17" s="528" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="532" t="s">
+      <c r="F17" s="529" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="532" t="s">
+      <c r="G17" s="529" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="516" t="s">
+      <c r="A18" s="513" t="s">
         <v>352</v>
       </c>
-      <c r="B18" s="533" t="s">
+      <c r="B18" s="530" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="534" t="s">
+      <c r="C18" s="531" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="535" t="s">
+      <c r="D18" s="532" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="536" t="s">
+      <c r="E18" s="533" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="537" t="s">
+      <c r="F18" s="534" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="537" t="s">
+      <c r="G18" s="534" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="516" t="s">
+      <c r="A19" s="513" t="s">
         <v>353</v>
       </c>
-      <c r="B19" s="533" t="s">
+      <c r="B19" s="530" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="534" t="s">
+      <c r="C19" s="531" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="535" t="s">
+      <c r="D19" s="532" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="536" t="s">
+      <c r="E19" s="533" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="537" t="s">
+      <c r="F19" s="534" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="537" t="s">
+      <c r="G19" s="534" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="538" t="s">
+      <c r="A20" s="535" t="s">
         <v>354</v>
       </c>
-      <c r="B20" s="539" t="s">
+      <c r="B20" s="536" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="540" t="s">
+      <c r="C20" s="537" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="541" t="s">
+      <c r="D20" s="538" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="542" t="s">
+      <c r="E20" s="539" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="537" t="s">
+      <c r="F20" s="534" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="537" t="s">
+      <c r="G20" s="534" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6823,11 +6829,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9344,19 +9350,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="223" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="513" t="s">
+      <c r="A1" s="593" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="513"/>
+      <c r="B1" s="593"/>
       <c r="C1" s="417" t="s">
         <v>341</v>
       </c>
@@ -9365,11 +9371,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="514" t="s">
+      <c r="A2" s="594" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="514"/>
-      <c r="C2" s="515" t="s">
+      <c r="B2" s="594"/>
+      <c r="C2" s="595" t="s">
         <v>316</v>
       </c>
       <c r="D2" s="417" t="s">
@@ -9377,16 +9383,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="514"/>
-      <c r="B3" s="514"/>
-      <c r="C3" s="515"/>
+      <c r="A3" s="594"/>
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
       <c r="D3" s="417" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="514"/>
-      <c r="B4" s="514"/>
+      <c r="A4" s="594"/>
+      <c r="B4" s="594"/>
       <c r="C4" s="417" t="s">
         <v>341</v>
       </c>
@@ -9398,10 +9404,10 @@
       <c r="A5" s="417" t="s">
         <v>341</v>
       </c>
-      <c r="B5" s="513" t="s">
+      <c r="B5" s="593" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="513"/>
+      <c r="C5" s="593"/>
       <c r="D5" s="417" t="s">
         <v>341</v>
       </c>
@@ -9420,12 +9426,21 @@
         <v>341</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="596" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="596"/>
+      <c r="C9" s="596"/>
+      <c r="D9" s="596"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
